--- a/dataset/soc_model/raw/sd835.xlsx
+++ b/dataset/soc_model/raw/sd835.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yc9559\OneDrive\proj\wipe-v2\wipe-v2\dataset\soc_model\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:40009_{3E687FC0-C439-4AF0-8A56-D497E71DDB11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{8BD53AD6-7005-465A-82E4-57A2AE69784A}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:40009_{3E687FC0-C439-4AF0-8A56-D497E71DDB11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{DA0C9BB1-9EC7-4582-B047-6D8A447A2AE1}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="13">
   <si>
     <t>item</t>
   </si>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>estimated by yc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>little</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -817,10 +821,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'sd820'!$B$4:$B$24</c:f>
+              <c:f>'sd820'!$B$4:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>300</c:v>
                 </c:pt>
@@ -883,16 +887,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'sd820'!$H$4:$H$24</c:f>
+              <c:f>'sd820'!$H$4:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
@@ -954,7 +961,10 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>65</c:v>
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,7 +1255,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'sd820'!$B$25:$B$52</c:f>
+              <c:f>'sd820'!$B$26:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1338,7 +1348,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'sd820'!$H$25:$H$52</c:f>
+              <c:f>'sd820'!$H$26:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3109,10 +3119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44:G52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3203,7 +3213,7 @@
         <v>20</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I52" si="2">H5*4.4</f>
+        <f t="shared" ref="I5:I25" si="2">H5*4.4</f>
         <v>88</v>
       </c>
     </row>
@@ -3624,11 +3634,11 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
-        <f t="shared" ref="F21:F52" si="3">D21*0.8</f>
+        <f t="shared" ref="F21:F25" si="3">D21*0.8</f>
         <v>193.60000000000002</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21:G52" si="4">D21*0.2</f>
+        <f t="shared" ref="G21:G25" si="4">D21*0.2</f>
         <v>48.400000000000006</v>
       </c>
       <c r="H21">
@@ -3713,38 +3723,37 @@
         <v>57.2</v>
       </c>
       <c r="H24">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>286</v>
+        <v>299.20000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="D25" s="1">
-        <v>171.60000000000002</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>321</v>
+      </c>
       <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>137.28000000000003</v>
+        <v>256.8</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="4"/>
-        <v>34.320000000000007</v>
+        <v>64.2</v>
       </c>
       <c r="H25">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>171.60000000000002</v>
+        <v>321.20000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -3752,26 +3761,26 @@
         <v>10</v>
       </c>
       <c r="B26">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="D26" s="1">
-        <v>176</v>
+        <v>171.60000000000002</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
-        <f t="shared" si="3"/>
-        <v>140.80000000000001</v>
+        <f>D26*0.8</f>
+        <v>137.28000000000003</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="4"/>
-        <v>35.200000000000003</v>
+        <f>D26*0.2</f>
+        <v>34.320000000000007</v>
       </c>
       <c r="H26">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
-        <v>176</v>
+        <f>H26*4.4</f>
+        <v>171.60000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -3779,26 +3788,26 @@
         <v>10</v>
       </c>
       <c r="B27">
-        <v>422</v>
+        <v>345</v>
       </c>
       <c r="D27" s="1">
-        <v>193.60000000000002</v>
+        <v>176</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
-        <f t="shared" si="3"/>
-        <v>154.88000000000002</v>
+        <f>D27*0.8</f>
+        <v>140.80000000000001</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="4"/>
-        <v>38.720000000000006</v>
+        <f>D27*0.2</f>
+        <v>35.200000000000003</v>
       </c>
       <c r="H27">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
-        <v>193.60000000000002</v>
+        <f>H27*4.4</f>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -3806,26 +3815,26 @@
         <v>10</v>
       </c>
       <c r="B28">
-        <v>499</v>
+        <v>422</v>
       </c>
       <c r="D28" s="1">
-        <v>211.20000000000002</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
-        <f t="shared" si="3"/>
-        <v>168.96000000000004</v>
+        <f>D28*0.8</f>
+        <v>154.88000000000002</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="4"/>
-        <v>42.240000000000009</v>
+        <f>D28*0.2</f>
+        <v>38.720000000000006</v>
       </c>
       <c r="H28">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
-        <v>211.20000000000002</v>
+        <f>H28*4.4</f>
+        <v>193.60000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -3833,26 +3842,26 @@
         <v>10</v>
       </c>
       <c r="B29">
-        <v>576</v>
+        <v>499</v>
       </c>
       <c r="D29" s="1">
-        <v>220.00000000000003</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
-        <f t="shared" si="3"/>
-        <v>176.00000000000003</v>
+        <f>D29*0.8</f>
+        <v>168.96000000000004</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="4"/>
-        <v>44.000000000000007</v>
+        <f>D29*0.2</f>
+        <v>42.240000000000009</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
-        <v>220.00000000000003</v>
+        <f>H29*4.4</f>
+        <v>211.20000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -3860,26 +3869,26 @@
         <v>10</v>
       </c>
       <c r="B30">
-        <v>652</v>
+        <v>576</v>
       </c>
       <c r="D30" s="1">
-        <v>237.60000000000002</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1">
-        <f t="shared" si="3"/>
-        <v>190.08000000000004</v>
+        <f>D30*0.8</f>
+        <v>176.00000000000003</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="4"/>
-        <v>47.52000000000001</v>
+        <f>D30*0.2</f>
+        <v>44.000000000000007</v>
       </c>
       <c r="H30">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
-        <v>237.60000000000002</v>
+        <f>H30*4.4</f>
+        <v>220.00000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -3887,26 +3896,26 @@
         <v>10</v>
       </c>
       <c r="B31">
-        <v>729</v>
+        <v>652</v>
       </c>
       <c r="D31" s="1">
-        <v>255.20000000000002</v>
+        <v>237.60000000000002</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
-        <f t="shared" si="3"/>
-        <v>204.16000000000003</v>
+        <f>D31*0.8</f>
+        <v>190.08000000000004</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="4"/>
-        <v>51.040000000000006</v>
+        <f>D31*0.2</f>
+        <v>47.52000000000001</v>
       </c>
       <c r="H31">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
-        <v>255.20000000000002</v>
+        <f>H31*4.4</f>
+        <v>237.60000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -3914,26 +3923,26 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>806</v>
+        <v>729</v>
       </c>
       <c r="D32" s="1">
-        <v>268.40000000000003</v>
+        <v>255.20000000000002</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1">
-        <f t="shared" si="3"/>
-        <v>214.72000000000003</v>
+        <f>D32*0.8</f>
+        <v>204.16000000000003</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="4"/>
-        <v>53.680000000000007</v>
+        <f>D32*0.2</f>
+        <v>51.040000000000006</v>
       </c>
       <c r="H32">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
-        <v>268.40000000000003</v>
+        <f>H32*4.4</f>
+        <v>255.20000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -3941,26 +3950,26 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>902</v>
+        <v>806</v>
       </c>
       <c r="D33" s="1">
-        <v>290.40000000000003</v>
+        <v>268.40000000000003</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1">
-        <f t="shared" si="3"/>
-        <v>232.32000000000005</v>
+        <f>D33*0.8</f>
+        <v>214.72000000000003</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="4"/>
-        <v>58.080000000000013</v>
+        <f>D33*0.2</f>
+        <v>53.680000000000007</v>
       </c>
       <c r="H33">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
-        <v>290.40000000000003</v>
+        <f>H33*4.4</f>
+        <v>268.40000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -3968,26 +3977,26 @@
         <v>10</v>
       </c>
       <c r="B34">
-        <v>979</v>
+        <v>902</v>
       </c>
       <c r="D34" s="1">
-        <v>303.60000000000002</v>
+        <v>290.40000000000003</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1">
-        <f t="shared" si="3"/>
-        <v>242.88000000000002</v>
+        <f>D34*0.8</f>
+        <v>232.32000000000005</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="4"/>
-        <v>60.720000000000006</v>
+        <f>D34*0.2</f>
+        <v>58.080000000000013</v>
       </c>
       <c r="H34">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I34">
-        <f t="shared" si="2"/>
-        <v>303.60000000000002</v>
+        <f>H34*4.4</f>
+        <v>290.40000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -3995,26 +4004,26 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>1056</v>
+        <v>979</v>
       </c>
       <c r="D35" s="1">
-        <v>316.8</v>
+        <v>303.60000000000002</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1">
-        <f t="shared" si="3"/>
-        <v>253.44000000000003</v>
+        <f>D35*0.8</f>
+        <v>242.88000000000002</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="4"/>
-        <v>63.360000000000007</v>
+        <f>D35*0.2</f>
+        <v>60.720000000000006</v>
       </c>
       <c r="H35">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I35">
-        <f t="shared" si="2"/>
-        <v>316.8</v>
+        <f>H35*4.4</f>
+        <v>303.60000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -4022,26 +4031,26 @@
         <v>10</v>
       </c>
       <c r="B36">
-        <v>1132</v>
+        <v>1056</v>
       </c>
       <c r="D36" s="1">
-        <v>330</v>
+        <v>316.8</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1">
-        <f t="shared" si="3"/>
-        <v>264</v>
+        <f>D36*0.8</f>
+        <v>253.44000000000003</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="4"/>
-        <v>66</v>
+        <f>D36*0.2</f>
+        <v>63.360000000000007</v>
       </c>
       <c r="H36">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
-        <v>330</v>
+        <f>H36*4.4</f>
+        <v>316.8</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -4049,26 +4058,26 @@
         <v>10</v>
       </c>
       <c r="B37">
-        <v>1190</v>
+        <v>1132</v>
       </c>
       <c r="D37" s="1">
-        <v>356.40000000000003</v>
+        <v>330</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1">
-        <f t="shared" si="3"/>
-        <v>285.12000000000006</v>
+        <f>D37*0.8</f>
+        <v>264</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="4"/>
-        <v>71.280000000000015</v>
+        <f>D37*0.2</f>
+        <v>66</v>
       </c>
       <c r="H37">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
-        <v>356.40000000000003</v>
+        <f>H37*4.4</f>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -4076,26 +4085,26 @@
         <v>10</v>
       </c>
       <c r="B38">
-        <v>1267</v>
+        <v>1190</v>
       </c>
       <c r="D38" s="1">
-        <v>382.8</v>
+        <v>356.40000000000003</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1">
-        <f t="shared" si="3"/>
-        <v>306.24</v>
+        <f>D38*0.8</f>
+        <v>285.12000000000006</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="4"/>
-        <v>76.56</v>
+        <f>D38*0.2</f>
+        <v>71.280000000000015</v>
       </c>
       <c r="H38">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I38">
-        <f t="shared" si="2"/>
-        <v>382.8</v>
+        <f>H38*4.4</f>
+        <v>356.40000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -4103,26 +4112,26 @@
         <v>10</v>
       </c>
       <c r="B39">
-        <v>1344</v>
+        <v>1267</v>
       </c>
       <c r="D39" s="1">
-        <v>418.00000000000006</v>
+        <v>382.8</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1">
-        <f t="shared" si="3"/>
-        <v>334.40000000000009</v>
+        <f>D39*0.8</f>
+        <v>306.24</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="4"/>
-        <v>83.600000000000023</v>
+        <f>D39*0.2</f>
+        <v>76.56</v>
       </c>
       <c r="H39">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I39">
-        <f t="shared" si="2"/>
-        <v>418.00000000000006</v>
+        <f>H39*4.4</f>
+        <v>382.8</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -4130,26 +4139,26 @@
         <v>10</v>
       </c>
       <c r="B40">
-        <v>1420</v>
+        <v>1344</v>
       </c>
       <c r="D40" s="1">
-        <v>448.8</v>
+        <v>418.00000000000006</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1">
-        <f t="shared" si="3"/>
-        <v>359.04</v>
+        <f>D40*0.8</f>
+        <v>334.40000000000009</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="4"/>
-        <v>89.76</v>
+        <f>D40*0.2</f>
+        <v>83.600000000000023</v>
       </c>
       <c r="H40">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I40">
-        <f t="shared" si="2"/>
-        <v>448.8</v>
+        <f>H40*4.4</f>
+        <v>418.00000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -4157,26 +4166,26 @@
         <v>10</v>
       </c>
       <c r="B41">
-        <v>1497</v>
+        <v>1420</v>
       </c>
       <c r="D41" s="1">
-        <v>492.80000000000007</v>
+        <v>448.8</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1">
-        <f t="shared" si="3"/>
-        <v>394.24000000000007</v>
+        <f>D41*0.8</f>
+        <v>359.04</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="4"/>
-        <v>98.560000000000016</v>
+        <f>D41*0.2</f>
+        <v>89.76</v>
       </c>
       <c r="H41">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
-        <v>492.80000000000007</v>
+        <f>H41*4.4</f>
+        <v>448.8</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -4184,26 +4193,26 @@
         <v>10</v>
       </c>
       <c r="B42">
-        <v>1574</v>
+        <v>1497</v>
       </c>
       <c r="D42" s="1">
-        <v>541.20000000000005</v>
+        <v>492.80000000000007</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1">
-        <f t="shared" si="3"/>
-        <v>432.96000000000004</v>
+        <f>D42*0.8</f>
+        <v>394.24000000000007</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="4"/>
-        <v>108.24000000000001</v>
+        <f>D42*0.2</f>
+        <v>98.560000000000016</v>
       </c>
       <c r="H42">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
-        <v>541.20000000000005</v>
+        <f>H42*4.4</f>
+        <v>492.80000000000007</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -4211,26 +4220,26 @@
         <v>10</v>
       </c>
       <c r="B43">
-        <v>1651</v>
+        <v>1574</v>
       </c>
       <c r="D43" s="1">
-        <v>585.20000000000005</v>
+        <v>541.20000000000005</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1">
-        <f t="shared" si="3"/>
-        <v>468.16000000000008</v>
+        <f>D43*0.8</f>
+        <v>432.96000000000004</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="4"/>
-        <v>117.04000000000002</v>
+        <f>D43*0.2</f>
+        <v>108.24000000000001</v>
       </c>
       <c r="H43">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
-        <v>585.20000000000005</v>
+        <f>H43*4.4</f>
+        <v>541.20000000000005</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -4238,26 +4247,26 @@
         <v>10</v>
       </c>
       <c r="B44">
-        <v>1728</v>
+        <v>1651</v>
       </c>
       <c r="D44" s="1">
-        <v>620.40000000000009</v>
+        <v>585.20000000000005</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
-        <f t="shared" si="3"/>
-        <v>496.32000000000011</v>
+        <f>D44*0.8</f>
+        <v>468.16000000000008</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="4"/>
-        <v>124.08000000000003</v>
+        <f>D44*0.2</f>
+        <v>117.04000000000002</v>
       </c>
       <c r="H44">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
-        <v>620.40000000000009</v>
+        <f>H44*4.4</f>
+        <v>585.20000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -4265,25 +4274,26 @@
         <v>10</v>
       </c>
       <c r="B45">
-        <v>1804</v>
-      </c>
-      <c r="D45">
-        <v>686.40000000000009</v>
-      </c>
+        <v>1728</v>
+      </c>
+      <c r="D45" s="1">
+        <v>620.40000000000009</v>
+      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1">
-        <f t="shared" si="3"/>
-        <v>549.12000000000012</v>
+        <f>D45*0.8</f>
+        <v>496.32000000000011</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="4"/>
-        <v>137.28000000000003</v>
+        <f>D45*0.2</f>
+        <v>124.08000000000003</v>
       </c>
       <c r="H45">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I45">
-        <f t="shared" si="2"/>
-        <v>686.40000000000009</v>
+        <f>H45*4.4</f>
+        <v>620.40000000000009</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -4291,25 +4301,25 @@
         <v>10</v>
       </c>
       <c r="B46">
-        <v>1881</v>
+        <v>1804</v>
       </c>
       <c r="D46">
-        <v>756.80000000000007</v>
+        <v>686.40000000000009</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="3"/>
-        <v>605.44000000000005</v>
+        <f>D46*0.8</f>
+        <v>549.12000000000012</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="4"/>
-        <v>151.36000000000001</v>
+        <f>D46*0.2</f>
+        <v>137.28000000000003</v>
       </c>
       <c r="H46">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="I46">
-        <f t="shared" si="2"/>
-        <v>756.80000000000007</v>
+        <f>H46*4.4</f>
+        <v>686.40000000000009</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -4317,25 +4327,25 @@
         <v>10</v>
       </c>
       <c r="B47">
-        <v>1958</v>
+        <v>1881</v>
       </c>
       <c r="D47">
-        <v>818.40000000000009</v>
+        <v>756.80000000000007</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="3"/>
-        <v>654.72000000000014</v>
+        <f>D47*0.8</f>
+        <v>605.44000000000005</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="4"/>
-        <v>163.68000000000004</v>
+        <f>D47*0.2</f>
+        <v>151.36000000000001</v>
       </c>
       <c r="H47">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I47">
-        <f t="shared" si="2"/>
-        <v>818.40000000000009</v>
+        <f>H47*4.4</f>
+        <v>756.80000000000007</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -4343,25 +4353,25 @@
         <v>10</v>
       </c>
       <c r="B48">
-        <v>2035</v>
+        <v>1958</v>
       </c>
       <c r="D48">
-        <v>902.00000000000011</v>
+        <v>818.40000000000009</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="3"/>
-        <v>721.60000000000014</v>
+        <f>D48*0.8</f>
+        <v>654.72000000000014</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="4"/>
-        <v>180.40000000000003</v>
+        <f>D48*0.2</f>
+        <v>163.68000000000004</v>
       </c>
       <c r="H48">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="I48">
-        <f t="shared" si="2"/>
-        <v>902.00000000000011</v>
+        <f>H48*4.4</f>
+        <v>818.40000000000009</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -4369,25 +4379,25 @@
         <v>10</v>
       </c>
       <c r="B49">
-        <v>2112</v>
+        <v>2035</v>
       </c>
       <c r="D49">
-        <v>990.00000000000011</v>
+        <v>902.00000000000011</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="3"/>
-        <v>792.00000000000011</v>
+        <f>D49*0.8</f>
+        <v>721.60000000000014</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="4"/>
-        <v>198.00000000000003</v>
+        <f>D49*0.2</f>
+        <v>180.40000000000003</v>
       </c>
       <c r="H49">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="I49">
-        <f t="shared" si="2"/>
-        <v>990.00000000000011</v>
+        <f>H49*4.4</f>
+        <v>902.00000000000011</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -4395,25 +4405,25 @@
         <v>10</v>
       </c>
       <c r="B50">
-        <v>2265</v>
+        <v>2112</v>
       </c>
       <c r="D50">
-        <v>1276</v>
+        <v>990.00000000000011</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="3"/>
-        <v>1020.8000000000001</v>
+        <f>D50*0.8</f>
+        <v>792.00000000000011</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="4"/>
-        <v>255.20000000000002</v>
+        <f>D50*0.2</f>
+        <v>198.00000000000003</v>
       </c>
       <c r="H50">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="I50">
-        <f t="shared" si="2"/>
-        <v>1276</v>
+        <f>H50*4.4</f>
+        <v>990.00000000000011</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -4421,25 +4431,25 @@
         <v>10</v>
       </c>
       <c r="B51">
-        <v>2342</v>
+        <v>2265</v>
       </c>
       <c r="D51">
-        <v>1408</v>
+        <v>1276</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="3"/>
-        <v>1126.4000000000001</v>
+        <f>D51*0.8</f>
+        <v>1020.8000000000001</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="4"/>
-        <v>281.60000000000002</v>
+        <f>D51*0.2</f>
+        <v>255.20000000000002</v>
       </c>
       <c r="H51">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="I51">
-        <f t="shared" si="2"/>
-        <v>1408</v>
+        <f>H51*4.4</f>
+        <v>1276</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -4447,24 +4457,50 @@
         <v>10</v>
       </c>
       <c r="B52">
+        <v>2342</v>
+      </c>
+      <c r="D52">
+        <v>1408</v>
+      </c>
+      <c r="F52" s="1">
+        <f>D52*0.8</f>
+        <v>1126.4000000000001</v>
+      </c>
+      <c r="G52" s="1">
+        <f>D52*0.2</f>
+        <v>281.60000000000002</v>
+      </c>
+      <c r="H52">
+        <v>320</v>
+      </c>
+      <c r="I52">
+        <f>H52*4.4</f>
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53">
         <v>2361</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>1430.0000000000002</v>
       </c>
-      <c r="F52" s="1">
-        <f t="shared" si="3"/>
+      <c r="F53" s="1">
+        <f>D53*0.8</f>
         <v>1144.0000000000002</v>
       </c>
-      <c r="G52" s="1">
-        <f t="shared" si="4"/>
+      <c r="G53" s="1">
+        <f>D53*0.2</f>
         <v>286.00000000000006</v>
       </c>
-      <c r="H52">
+      <c r="H53">
         <v>325</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="2"/>
+      <c r="I53">
+        <f>H53*4.4</f>
         <v>1430.0000000000002</v>
       </c>
     </row>

--- a/dataset/soc_model/raw/sd835.xlsx
+++ b/dataset/soc_model/raw/sd835.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yc9559\OneDrive\proj\wipe-v2\wipe-v2\dataset\soc_model\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:40009_{3E687FC0-C439-4AF0-8A56-D497E71DDB11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{DA0C9BB1-9EC7-4582-B047-6D8A447A2AE1}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:40009_{3E687FC0-C439-4AF0-8A56-D497E71DDB11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{126CB760-25CF-46EA-A5A7-5023B2E0886E}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="14">
   <si>
     <t>item</t>
   </si>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>little</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>big</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1255,10 +1259,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'sd820'!$B$26:$B$53</c:f>
+              <c:f>'sd820'!$B$26:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>300</c:v>
                 </c:pt>
@@ -1342,16 +1346,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'sd820'!$H$26:$H$53</c:f>
+              <c:f>'sd820'!$H$26:$H$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>39</c:v>
                 </c:pt>
@@ -1435,6 +1442,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,10 +3129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3768,18 +3778,18 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
-        <f>D26*0.8</f>
+        <f t="shared" ref="F26:F54" si="5">D26*0.8</f>
         <v>137.28000000000003</v>
       </c>
       <c r="G26" s="1">
-        <f>D26*0.2</f>
+        <f t="shared" ref="G26:G54" si="6">D26*0.2</f>
         <v>34.320000000000007</v>
       </c>
       <c r="H26">
         <v>39</v>
       </c>
       <c r="I26">
-        <f>H26*4.4</f>
+        <f t="shared" ref="I26:I54" si="7">H26*4.4</f>
         <v>171.60000000000002</v>
       </c>
     </row>
@@ -3795,18 +3805,18 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
-        <f>D27*0.8</f>
+        <f t="shared" si="5"/>
         <v>140.80000000000001</v>
       </c>
       <c r="G27" s="1">
-        <f>D27*0.2</f>
+        <f t="shared" si="6"/>
         <v>35.200000000000003</v>
       </c>
       <c r="H27">
         <v>40</v>
       </c>
       <c r="I27">
-        <f>H27*4.4</f>
+        <f t="shared" si="7"/>
         <v>176</v>
       </c>
     </row>
@@ -3822,18 +3832,18 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
-        <f>D28*0.8</f>
+        <f t="shared" si="5"/>
         <v>154.88000000000002</v>
       </c>
       <c r="G28" s="1">
-        <f>D28*0.2</f>
+        <f t="shared" si="6"/>
         <v>38.720000000000006</v>
       </c>
       <c r="H28">
         <v>44</v>
       </c>
       <c r="I28">
-        <f>H28*4.4</f>
+        <f t="shared" si="7"/>
         <v>193.60000000000002</v>
       </c>
     </row>
@@ -3849,18 +3859,18 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
-        <f>D29*0.8</f>
+        <f t="shared" si="5"/>
         <v>168.96000000000004</v>
       </c>
       <c r="G29" s="1">
-        <f>D29*0.2</f>
+        <f t="shared" si="6"/>
         <v>42.240000000000009</v>
       </c>
       <c r="H29">
         <v>48</v>
       </c>
       <c r="I29">
-        <f>H29*4.4</f>
+        <f t="shared" si="7"/>
         <v>211.20000000000002</v>
       </c>
     </row>
@@ -3876,18 +3886,18 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1">
-        <f>D30*0.8</f>
+        <f t="shared" si="5"/>
         <v>176.00000000000003</v>
       </c>
       <c r="G30" s="1">
-        <f>D30*0.2</f>
+        <f t="shared" si="6"/>
         <v>44.000000000000007</v>
       </c>
       <c r="H30">
         <v>50</v>
       </c>
       <c r="I30">
-        <f>H30*4.4</f>
+        <f t="shared" si="7"/>
         <v>220.00000000000003</v>
       </c>
     </row>
@@ -3903,18 +3913,18 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
-        <f>D31*0.8</f>
+        <f t="shared" si="5"/>
         <v>190.08000000000004</v>
       </c>
       <c r="G31" s="1">
-        <f>D31*0.2</f>
+        <f t="shared" si="6"/>
         <v>47.52000000000001</v>
       </c>
       <c r="H31">
         <v>54</v>
       </c>
       <c r="I31">
-        <f>H31*4.4</f>
+        <f t="shared" si="7"/>
         <v>237.60000000000002</v>
       </c>
     </row>
@@ -3930,18 +3940,18 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1">
-        <f>D32*0.8</f>
+        <f t="shared" si="5"/>
         <v>204.16000000000003</v>
       </c>
       <c r="G32" s="1">
-        <f>D32*0.2</f>
+        <f t="shared" si="6"/>
         <v>51.040000000000006</v>
       </c>
       <c r="H32">
         <v>58</v>
       </c>
       <c r="I32">
-        <f>H32*4.4</f>
+        <f t="shared" si="7"/>
         <v>255.20000000000002</v>
       </c>
     </row>
@@ -3957,18 +3967,18 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1">
-        <f>D33*0.8</f>
+        <f t="shared" si="5"/>
         <v>214.72000000000003</v>
       </c>
       <c r="G33" s="1">
-        <f>D33*0.2</f>
+        <f t="shared" si="6"/>
         <v>53.680000000000007</v>
       </c>
       <c r="H33">
         <v>61</v>
       </c>
       <c r="I33">
-        <f>H33*4.4</f>
+        <f t="shared" si="7"/>
         <v>268.40000000000003</v>
       </c>
     </row>
@@ -3984,18 +3994,18 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1">
-        <f>D34*0.8</f>
+        <f t="shared" si="5"/>
         <v>232.32000000000005</v>
       </c>
       <c r="G34" s="1">
-        <f>D34*0.2</f>
+        <f t="shared" si="6"/>
         <v>58.080000000000013</v>
       </c>
       <c r="H34">
         <v>66</v>
       </c>
       <c r="I34">
-        <f>H34*4.4</f>
+        <f t="shared" si="7"/>
         <v>290.40000000000003</v>
       </c>
     </row>
@@ -4011,18 +4021,18 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1">
-        <f>D35*0.8</f>
+        <f t="shared" si="5"/>
         <v>242.88000000000002</v>
       </c>
       <c r="G35" s="1">
-        <f>D35*0.2</f>
+        <f t="shared" si="6"/>
         <v>60.720000000000006</v>
       </c>
       <c r="H35">
         <v>69</v>
       </c>
       <c r="I35">
-        <f>H35*4.4</f>
+        <f t="shared" si="7"/>
         <v>303.60000000000002</v>
       </c>
     </row>
@@ -4038,18 +4048,18 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1">
-        <f>D36*0.8</f>
+        <f t="shared" si="5"/>
         <v>253.44000000000003</v>
       </c>
       <c r="G36" s="1">
-        <f>D36*0.2</f>
+        <f t="shared" si="6"/>
         <v>63.360000000000007</v>
       </c>
       <c r="H36">
         <v>72</v>
       </c>
       <c r="I36">
-        <f>H36*4.4</f>
+        <f t="shared" si="7"/>
         <v>316.8</v>
       </c>
     </row>
@@ -4065,18 +4075,18 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1">
-        <f>D37*0.8</f>
+        <f t="shared" si="5"/>
         <v>264</v>
       </c>
       <c r="G37" s="1">
-        <f>D37*0.2</f>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="H37">
         <v>75</v>
       </c>
       <c r="I37">
-        <f>H37*4.4</f>
+        <f t="shared" si="7"/>
         <v>330</v>
       </c>
     </row>
@@ -4092,18 +4102,18 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1">
-        <f>D38*0.8</f>
+        <f t="shared" si="5"/>
         <v>285.12000000000006</v>
       </c>
       <c r="G38" s="1">
-        <f>D38*0.2</f>
+        <f t="shared" si="6"/>
         <v>71.280000000000015</v>
       </c>
       <c r="H38">
         <v>81</v>
       </c>
       <c r="I38">
-        <f>H38*4.4</f>
+        <f t="shared" si="7"/>
         <v>356.40000000000003</v>
       </c>
     </row>
@@ -4119,18 +4129,18 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1">
-        <f>D39*0.8</f>
+        <f t="shared" si="5"/>
         <v>306.24</v>
       </c>
       <c r="G39" s="1">
-        <f>D39*0.2</f>
+        <f t="shared" si="6"/>
         <v>76.56</v>
       </c>
       <c r="H39">
         <v>87</v>
       </c>
       <c r="I39">
-        <f>H39*4.4</f>
+        <f t="shared" si="7"/>
         <v>382.8</v>
       </c>
     </row>
@@ -4146,18 +4156,18 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1">
-        <f>D40*0.8</f>
+        <f t="shared" si="5"/>
         <v>334.40000000000009</v>
       </c>
       <c r="G40" s="1">
-        <f>D40*0.2</f>
+        <f t="shared" si="6"/>
         <v>83.600000000000023</v>
       </c>
       <c r="H40">
         <v>95</v>
       </c>
       <c r="I40">
-        <f>H40*4.4</f>
+        <f t="shared" si="7"/>
         <v>418.00000000000006</v>
       </c>
     </row>
@@ -4173,18 +4183,18 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1">
-        <f>D41*0.8</f>
+        <f t="shared" si="5"/>
         <v>359.04</v>
       </c>
       <c r="G41" s="1">
-        <f>D41*0.2</f>
+        <f t="shared" si="6"/>
         <v>89.76</v>
       </c>
       <c r="H41">
         <v>102</v>
       </c>
       <c r="I41">
-        <f>H41*4.4</f>
+        <f t="shared" si="7"/>
         <v>448.8</v>
       </c>
     </row>
@@ -4200,18 +4210,18 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1">
-        <f>D42*0.8</f>
+        <f t="shared" si="5"/>
         <v>394.24000000000007</v>
       </c>
       <c r="G42" s="1">
-        <f>D42*0.2</f>
+        <f t="shared" si="6"/>
         <v>98.560000000000016</v>
       </c>
       <c r="H42">
         <v>112</v>
       </c>
       <c r="I42">
-        <f>H42*4.4</f>
+        <f t="shared" si="7"/>
         <v>492.80000000000007</v>
       </c>
     </row>
@@ -4227,18 +4237,18 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1">
-        <f>D43*0.8</f>
+        <f t="shared" si="5"/>
         <v>432.96000000000004</v>
       </c>
       <c r="G43" s="1">
-        <f>D43*0.2</f>
+        <f t="shared" si="6"/>
         <v>108.24000000000001</v>
       </c>
       <c r="H43">
         <v>123</v>
       </c>
       <c r="I43">
-        <f>H43*4.4</f>
+        <f t="shared" si="7"/>
         <v>541.20000000000005</v>
       </c>
     </row>
@@ -4254,18 +4264,18 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
-        <f>D44*0.8</f>
+        <f t="shared" si="5"/>
         <v>468.16000000000008</v>
       </c>
       <c r="G44" s="1">
-        <f>D44*0.2</f>
+        <f t="shared" si="6"/>
         <v>117.04000000000002</v>
       </c>
       <c r="H44">
         <v>133</v>
       </c>
       <c r="I44">
-        <f>H44*4.4</f>
+        <f t="shared" si="7"/>
         <v>585.20000000000005</v>
       </c>
     </row>
@@ -4281,18 +4291,18 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1">
-        <f>D45*0.8</f>
+        <f t="shared" si="5"/>
         <v>496.32000000000011</v>
       </c>
       <c r="G45" s="1">
-        <f>D45*0.2</f>
+        <f t="shared" si="6"/>
         <v>124.08000000000003</v>
       </c>
       <c r="H45">
         <v>141</v>
       </c>
       <c r="I45">
-        <f>H45*4.4</f>
+        <f t="shared" si="7"/>
         <v>620.40000000000009</v>
       </c>
     </row>
@@ -4307,18 +4317,18 @@
         <v>686.40000000000009</v>
       </c>
       <c r="F46" s="1">
-        <f>D46*0.8</f>
+        <f t="shared" si="5"/>
         <v>549.12000000000012</v>
       </c>
       <c r="G46" s="1">
-        <f>D46*0.2</f>
+        <f t="shared" si="6"/>
         <v>137.28000000000003</v>
       </c>
       <c r="H46">
         <v>156</v>
       </c>
       <c r="I46">
-        <f>H46*4.4</f>
+        <f t="shared" si="7"/>
         <v>686.40000000000009</v>
       </c>
     </row>
@@ -4333,18 +4343,18 @@
         <v>756.80000000000007</v>
       </c>
       <c r="F47" s="1">
-        <f>D47*0.8</f>
+        <f t="shared" si="5"/>
         <v>605.44000000000005</v>
       </c>
       <c r="G47" s="1">
-        <f>D47*0.2</f>
+        <f t="shared" si="6"/>
         <v>151.36000000000001</v>
       </c>
       <c r="H47">
         <v>172</v>
       </c>
       <c r="I47">
-        <f>H47*4.4</f>
+        <f t="shared" si="7"/>
         <v>756.80000000000007</v>
       </c>
     </row>
@@ -4359,18 +4369,18 @@
         <v>818.40000000000009</v>
       </c>
       <c r="F48" s="1">
-        <f>D48*0.8</f>
+        <f t="shared" si="5"/>
         <v>654.72000000000014</v>
       </c>
       <c r="G48" s="1">
-        <f>D48*0.2</f>
+        <f t="shared" si="6"/>
         <v>163.68000000000004</v>
       </c>
       <c r="H48">
         <v>186</v>
       </c>
       <c r="I48">
-        <f>H48*4.4</f>
+        <f t="shared" si="7"/>
         <v>818.40000000000009</v>
       </c>
     </row>
@@ -4385,18 +4395,18 @@
         <v>902.00000000000011</v>
       </c>
       <c r="F49" s="1">
-        <f>D49*0.8</f>
+        <f t="shared" si="5"/>
         <v>721.60000000000014</v>
       </c>
       <c r="G49" s="1">
-        <f>D49*0.2</f>
+        <f t="shared" si="6"/>
         <v>180.40000000000003</v>
       </c>
       <c r="H49">
         <v>205</v>
       </c>
       <c r="I49">
-        <f>H49*4.4</f>
+        <f t="shared" si="7"/>
         <v>902.00000000000011</v>
       </c>
     </row>
@@ -4411,18 +4421,18 @@
         <v>990.00000000000011</v>
       </c>
       <c r="F50" s="1">
-        <f>D50*0.8</f>
+        <f t="shared" si="5"/>
         <v>792.00000000000011</v>
       </c>
       <c r="G50" s="1">
-        <f>D50*0.2</f>
+        <f t="shared" si="6"/>
         <v>198.00000000000003</v>
       </c>
       <c r="H50">
         <v>225</v>
       </c>
       <c r="I50">
-        <f>H50*4.4</f>
+        <f t="shared" si="7"/>
         <v>990.00000000000011</v>
       </c>
     </row>
@@ -4437,18 +4447,18 @@
         <v>1276</v>
       </c>
       <c r="F51" s="1">
-        <f>D51*0.8</f>
+        <f t="shared" si="5"/>
         <v>1020.8000000000001</v>
       </c>
       <c r="G51" s="1">
-        <f>D51*0.2</f>
+        <f t="shared" si="6"/>
         <v>255.20000000000002</v>
       </c>
       <c r="H51">
         <v>290</v>
       </c>
       <c r="I51">
-        <f>H51*4.4</f>
+        <f t="shared" si="7"/>
         <v>1276</v>
       </c>
     </row>
@@ -4463,18 +4473,18 @@
         <v>1408</v>
       </c>
       <c r="F52" s="1">
-        <f>D52*0.8</f>
+        <f t="shared" si="5"/>
         <v>1126.4000000000001</v>
       </c>
       <c r="G52" s="1">
-        <f>D52*0.2</f>
+        <f t="shared" si="6"/>
         <v>281.60000000000002</v>
       </c>
       <c r="H52">
         <v>320</v>
       </c>
       <c r="I52">
-        <f>H52*4.4</f>
+        <f t="shared" si="7"/>
         <v>1408</v>
       </c>
     </row>
@@ -4489,19 +4499,45 @@
         <v>1430.0000000000002</v>
       </c>
       <c r="F53" s="1">
-        <f>D53*0.8</f>
+        <f t="shared" si="5"/>
         <v>1144.0000000000002</v>
       </c>
       <c r="G53" s="1">
-        <f>D53*0.2</f>
+        <f t="shared" si="6"/>
         <v>286.00000000000006</v>
       </c>
       <c r="H53">
         <v>325</v>
       </c>
       <c r="I53">
-        <f>H53*4.4</f>
+        <f t="shared" si="7"/>
         <v>1430.0000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54">
+        <v>2457</v>
+      </c>
+      <c r="D54">
+        <v>1672</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="5"/>
+        <v>1337.6000000000001</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="6"/>
+        <v>334.40000000000003</v>
+      </c>
+      <c r="H54">
+        <v>380</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="7"/>
+        <v>1672.0000000000002</v>
       </c>
     </row>
   </sheetData>
